--- a/biology/Médecine/Muscle_supinateur/Muscle_supinateur.xlsx
+++ b/biology/Médecine/Muscle_supinateur/Muscle_supinateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supinateur (ou muscle court supinateur) est un muscle de lavant-bras. Il est situé dans le plan profond de la loge antebrachiale postérieure.
 Il se divise en deux chefs : le chef huméral et le chef ulnaire.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chef huméral du muscle supinateur
-Le chef huméral du muscle supinateur se fixe sur la face antéro-latérale de l'épicondyle latéral de l'humérus, sur le ligament collatéral radial de l'articulation du coude.
-Chef ulnaire du muscle supinateur
-Le chef ulnaire du muscle supinateur se fixe sur la crête du muscle supinateur de l'ulna.
+          <t>Chef huméral du muscle supinateur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef huméral du muscle supinateur se fixe sur la face antéro-latérale de l'épicondyle latéral de l'humérus, sur le ligament collatéral radial de l'articulation du coude.
 </t>
         </is>
       </c>
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le chef huméral a la forme d'un triangle, les fibres inférieures sont horizontales et les fibres supérieures quasi verticales, elles contournent l'extrémité supérieure du radius en la recouvrant.
-Le chef ulnaire est transversal juste en dedans des fibres horizontales du chef huméral.
+          <t>Chef ulnaire du muscle supinateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef ulnaire du muscle supinateur se fixe sur la crête du muscle supinateur de l'ulna.
 </t>
         </is>
       </c>
@@ -575,12 +595,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terminaison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux chefs après s'être enroulés autour de l'extrémité proximale du radius se termine sur le col et sur le bord antérieur du radius.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef huméral a la forme d'un triangle, les fibres inférieures sont horizontales et les fibres supérieures quasi verticales, elles contournent l'extrémité supérieure du radius en la recouvrant.
+Le chef ulnaire est transversal juste en dedans des fibres horizontales du chef huméral.
 </t>
         </is>
       </c>
@@ -606,12 +629,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Innervation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle supinateur est innervé par plusieurs rameaux issus du rameau profond du nerf radial.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux chefs après s'être enroulés autour de l'extrémité proximale du radius se termine sur le col et sur le bord antérieur du radius.
 </t>
         </is>
       </c>
@@ -637,10 +662,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle supinateur est innervé par plusieurs rameaux issus du rameau profond du nerf radial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_supinateur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_supinateur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supinateur est un muscle purement supinateur, portant le pouce vers le dehors lors de la rotation de l'avant bras, coude fléchi.
 </t>
